--- a/130_Test_Log.xlsx
+++ b/130_Test_Log.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
   <si>
     <t>Test</t>
   </si>
@@ -215,10 +215,55 @@
     <t>Error message telling me I must enter a number</t>
   </si>
   <si>
-    <t>It worked</t>
-  </si>
-  <si>
-    <t>It worked, my coin count increased, and the pot is negative</t>
+    <t>No error: Fixed</t>
+  </si>
+  <si>
+    <t>It worked, my coin count increased, and the pot is negative: Fixed</t>
+  </si>
+  <si>
+    <t>It worked: Fixed</t>
+  </si>
+  <si>
+    <t>Same option for Yes No Bet</t>
+  </si>
+  <si>
+    <t>Bet was created</t>
+  </si>
+  <si>
+    <t>Continuity</t>
+  </si>
+  <si>
+    <t>Create new account</t>
+  </si>
+  <si>
+    <t>All created bets are present, markers are correct color</t>
+  </si>
+  <si>
+    <t>Numerical bet: entered a number outside of range</t>
+  </si>
+  <si>
+    <t>Error message telling me to enter a number in range</t>
+  </si>
+  <si>
+    <t>Numerical bet: entered a number outside of range (negative number)</t>
+  </si>
+  <si>
+    <t>Numerical bet: enter a number on the range boundary</t>
+  </si>
+  <si>
+    <t>Worked fine</t>
+  </si>
+  <si>
+    <t>Enter all wager information but click back instead of make wager</t>
+  </si>
+  <si>
+    <t>Wager was not made, marker did not change color</t>
+  </si>
+  <si>
+    <t>Try to wager on bet I created</t>
+  </si>
+  <si>
+    <t>Option is not available</t>
   </si>
 </sst>
 </file>
@@ -317,7 +362,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -348,6 +393,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -428,8 +482,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="B6:D41" totalsRowShown="0">
-  <autoFilter ref="B6:D41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="B6:D54" totalsRowShown="0">
+  <autoFilter ref="B6:D54"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Test" dataDxfId="2"/>
     <tableColumn id="2" name="Input" dataDxfId="1"/>
@@ -706,10 +760,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -821,8 +875,8 @@
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>14</v>
+      <c r="D12" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -832,8 +886,8 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>14</v>
+      <c r="D13" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -854,7 +908,7 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -876,7 +930,7 @@
       <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -909,7 +963,7 @@
       <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -973,21 +1027,21 @@
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>35</v>
+        <v>64</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -995,21 +1049,21 @@
         <v>39</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1017,10 +1071,10 @@
         <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1028,32 +1082,32 @@
         <v>44</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>54</v>
+      <c r="B33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1061,10 +1115,10 @@
         <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1072,10 +1126,10 @@
         <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1083,10 +1137,10 @@
         <v>49</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1094,10 +1148,10 @@
         <v>49</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1105,10 +1159,10 @@
         <v>49</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1116,10 +1170,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1127,10 +1181,10 @@
         <v>49</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1138,9 +1192,152 @@
         <v>49</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D45" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/130_Test_Log.xlsx
+++ b/130_Test_Log.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="130">
   <si>
     <t>Test</t>
   </si>
@@ -264,6 +264,162 @@
   </si>
   <si>
     <t>Option is not available</t>
+  </si>
+  <si>
+    <t>Located in San Diego</t>
+  </si>
+  <si>
+    <t>Make wager in San Diego</t>
+  </si>
+  <si>
+    <t>It works as expected (location)</t>
+  </si>
+  <si>
+    <t>Pot increased as expected</t>
+  </si>
+  <si>
+    <t>Bet shows on active bets screen with the correct pot</t>
+  </si>
+  <si>
+    <t>Click on bet in active bets</t>
+  </si>
+  <si>
+    <t>Takes me to bet info page</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Click on user who is mediating bet</t>
+  </si>
+  <si>
+    <t>Takes me to user profile</t>
+  </si>
+  <si>
+    <t>View profile after settling a bet</t>
+  </si>
+  <si>
+    <t>I have an achievement!</t>
+  </si>
+  <si>
+    <t>View achievements</t>
+  </si>
+  <si>
+    <t>Can click achievement, can exit view by clicking out of screen</t>
+  </si>
+  <si>
+    <t>View history from profile</t>
+  </si>
+  <si>
+    <t>Shows the settled bets and the resulting cut</t>
+  </si>
+  <si>
+    <t>Spam click on profile page</t>
+  </si>
+  <si>
+    <t>Nothing bad happened</t>
+  </si>
+  <si>
+    <t>List View</t>
+  </si>
+  <si>
+    <t>View sorted bets</t>
+  </si>
+  <si>
+    <t>Bets are sorted by how close they are to me</t>
+  </si>
+  <si>
+    <t>Click on bet, make wager</t>
+  </si>
+  <si>
+    <t>Wager icon is updated on map view</t>
+  </si>
+  <si>
+    <t>Make wager on empty bet</t>
+  </si>
+  <si>
+    <t>Create bet close to my location</t>
+  </si>
+  <si>
+    <t>Bet is at top of list</t>
+  </si>
+  <si>
+    <t>Coin icon changes in list view</t>
+  </si>
+  <si>
+    <t>Category View</t>
+  </si>
+  <si>
+    <t>Create bet in category</t>
+  </si>
+  <si>
+    <t>View category in category view</t>
+  </si>
+  <si>
+    <t>Bet appears in correct category</t>
+  </si>
+  <si>
+    <t>Can settle bet I created but cannot make wager</t>
+  </si>
+  <si>
+    <t>Access bet I created from category</t>
+  </si>
+  <si>
+    <t>Access other bet from category</t>
+  </si>
+  <si>
+    <t>Can make wager</t>
+  </si>
+  <si>
+    <t>View user profile of other bet</t>
+  </si>
+  <si>
+    <t>Can see profile, user has additional achievements</t>
+  </si>
+  <si>
+    <t>Achievements</t>
+  </si>
+  <si>
+    <t>Make a bet</t>
+  </si>
+  <si>
+    <t>Get first bet achievement</t>
+  </si>
+  <si>
+    <t>Make 3 wagers</t>
+  </si>
+  <si>
+    <t>Get an achievement for making 3 wagers</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Search for sports</t>
+  </si>
+  <si>
+    <t>Bets with word "sports" in title appear</t>
+  </si>
+  <si>
+    <t>Create bet without word 'sport' in sport category, search for it</t>
+  </si>
+  <si>
+    <t>Bet does not appear</t>
+  </si>
+  <si>
+    <t>Search for user "kelly"</t>
+  </si>
+  <si>
+    <t>User profile can be selected</t>
+  </si>
+  <si>
+    <t>View user profile from search screen</t>
+  </si>
+  <si>
+    <t>Works as expected</t>
+  </si>
+  <si>
+    <t>View bet from search screen</t>
   </si>
 </sst>
 </file>
@@ -482,8 +638,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="B6:D54" totalsRowShown="0">
-  <autoFilter ref="B6:D54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="B6:D71" totalsRowShown="0">
+  <autoFilter ref="B6:D71"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Test" dataDxfId="2"/>
     <tableColumn id="2" name="Input" dataDxfId="1"/>
@@ -760,10 +916,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1046,13 +1202,13 @@
     </row>
     <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1060,21 +1216,21 @@
         <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1082,10 +1238,10 @@
         <v>44</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1093,32 +1249,32 @@
         <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="13" t="s">
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1126,10 +1282,10 @@
         <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1137,10 +1293,10 @@
         <v>49</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1148,10 +1304,10 @@
         <v>49</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1159,10 +1315,10 @@
         <v>49</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1170,10 +1326,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1181,10 +1337,10 @@
         <v>49</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1192,7 +1348,7 @@
         <v>49</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>70</v>
@@ -1203,10 +1359,10 @@
         <v>49</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1214,10 +1370,10 @@
         <v>49</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1225,10 +1381,10 @@
         <v>49</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1236,10 +1392,10 @@
         <v>49</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1247,10 +1403,10 @@
         <v>49</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1258,10 +1414,10 @@
         <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1269,10 +1425,10 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1280,66 +1436,247 @@
         <v>49</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="11" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="11" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/130_Test_Log.xlsx
+++ b/130_Test_Log.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
   <si>
     <t>Test</t>
   </si>
@@ -420,6 +420,30 @@
   </si>
   <si>
     <t>View bet from search screen</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Make simple comment</t>
+  </si>
+  <si>
+    <t>Comment appears on bet page</t>
+  </si>
+  <si>
+    <t>Exit out of bet page, click on bet again</t>
+  </si>
+  <si>
+    <t>Comment is still present</t>
+  </si>
+  <si>
+    <t>Make empty comment</t>
+  </si>
+  <si>
+    <t>Comment does not appear unless I add text</t>
+  </si>
+  <si>
+    <t>Log in from different account</t>
   </si>
 </sst>
 </file>
@@ -638,8 +662,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="B6:D71" totalsRowShown="0">
-  <autoFilter ref="B6:D71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="B6:D74" totalsRowShown="0">
+  <autoFilter ref="B6:D74"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Test" dataDxfId="2"/>
     <tableColumn id="2" name="Input" dataDxfId="1"/>
@@ -916,10 +940,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1674,9 +1698,48 @@
       </c>
     </row>
     <row r="71" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15"/>
+      <c r="B71" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
